--- a/data/VEGA_QSAR_modeli/concentration_results.xlsx
+++ b/data/VEGA_QSAR_modeli/concentration_results.xlsx
@@ -436,17 +436,17 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Kuželj-Gorski kotar - Kupa</t>
+          <t>Kuželj - Kupa</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Iševnica- Gorski kotar - Kupica</t>
+          <t>Brod na Kupi - Kupica</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>centar Karlovca - Kupa</t>
+          <t>Karlovac - Kupa</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -456,7 +456,7 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Zagrebačka županija - Kupčina</t>
+          <t>ZG županija - Kupčina</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -481,27 +481,27 @@
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jurovo - Jurovski Brod (utok Lahinje - lijevi pritok) - Kupa </t>
+          <t xml:space="preserve">Jurovo - Kupa </t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ozalj - Kupa </t>
+          <t xml:space="preserve">HE - Kupa </t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>Metković-Doljani - Neretva</t>
+          <t>Doljani - Neretva</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Metković-Unka - Neretva</t>
+          <t>Unka - Neretva</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>Metković-most - Neretva</t>
+          <t>most - Neretva</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
@@ -521,57 +521,57 @@
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>Petrinja (kupalište) - Kupa</t>
+          <t>Petrinja - Kupa</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>Sisak (Stari grad) - Kupa</t>
+          <t>Sisak - Kupa</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>Sisak (Stari grad) - Sava</t>
+          <t>Sisak - Sava</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>Zagreb (Savski Kamenji - toplana) - Sava</t>
+          <t>Zagreb - Sava</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Prošćansko jezero - Plitvička jezera </t>
+          <t>Prošćansko - Plitvice</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>Belavići-kamp Slapić - Mrežnica</t>
+          <t>Slapić - Mrežnica</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>Duga Resa-gradsko kupalište - Mrežnica</t>
+          <t>Duga Resa - Mrežnica</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>Severin na Kupi-kupalište Klanac - Kupa</t>
+          <t>Severin - Kupa</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>Ozalj-gradsko kupalište - Kupa</t>
+          <t>Ozalj - Kupa</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>Slunj-kupalište Rastoke - Korana</t>
+          <t>Slunj - Korana</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>Karlovac-Foginovo kupalište - Korana</t>
+          <t>Karlovac - Korana</t>
         </is>
       </c>
     </row>
